--- a/fuentes/contenidos/grado10/guion15/escaleta_CN_10_15_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion15/escaleta_CN_10_15_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion15\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -823,7 +828,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,6 +901,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -952,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1007,76 +1018,7 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1088,6 +1030,86 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,7 +1185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1198,7 +1220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1409,9 +1431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,17 +1443,17 @@
     <col min="3" max="3" width="23" style="21" customWidth="1"/>
     <col min="4" max="4" width="43.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.85546875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="31" customWidth="1"/>
     <col min="7" max="7" width="65.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="11" style="54" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="11" style="31" customWidth="1"/>
     <col min="10" max="10" width="103.5703125" style="21" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="21" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="21" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" style="54" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="54" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="54" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" style="31" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="31" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="31" customWidth="1"/>
     <col min="18" max="18" width="23" style="21" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.85546875" style="21" bestFit="1" customWidth="1"/>
@@ -1440,94 +1462,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="31"/>
+      <c r="N1" s="52"/>
       <c r="O1" s="32" t="s">
         <v>109</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="34" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="43" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="45"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="35"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1570,19 +1592,19 @@
       <c r="P3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="48">
+      <c r="Q3" s="25">
         <v>6</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="25" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1611,13 +1633,13 @@
       <c r="L4" s="12"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="48"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="25"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1662,19 +1684,19 @@
       <c r="P5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="Q5" s="25">
         <v>6</v>
       </c>
-      <c r="R5" s="49" t="s">
+      <c r="R5" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S5" s="48" t="s">
+      <c r="S5" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T5" s="50" t="s">
+      <c r="T5" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="U5" s="48" t="s">
+      <c r="U5" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1719,19 +1741,19 @@
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
-      <c r="Q6" s="48">
+      <c r="Q6" s="25">
         <v>6</v>
       </c>
-      <c r="R6" s="49" t="s">
+      <c r="R6" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S6" s="48" t="s">
+      <c r="S6" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T6" s="50" t="s">
+      <c r="T6" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="U6" s="48" t="s">
+      <c r="U6" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1776,19 +1798,19 @@
       <c r="P7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="25">
         <v>6</v>
       </c>
-      <c r="R7" s="49" t="s">
+      <c r="R7" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="S7" s="48" t="s">
+      <c r="S7" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="T7" s="50" t="s">
+      <c r="T7" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="U7" s="48" t="s">
+      <c r="U7" s="25" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1819,11 +1841,11 @@
       <c r="N8" s="7"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="48"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="25"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -1852,11 +1874,11 @@
       <c r="N9" s="7"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="48"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="25"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1901,19 +1923,19 @@
       <c r="P10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="25">
         <v>6</v>
       </c>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S10" s="48" t="s">
+      <c r="S10" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T10" s="50" t="s">
+      <c r="T10" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="U10" s="48" t="s">
+      <c r="U10" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1960,19 +1982,19 @@
       <c r="P11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="48" t="s">
+      <c r="Q11" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="R11" s="49" t="s">
+      <c r="R11" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="S11" s="48" t="s">
+      <c r="S11" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="T11" s="50" t="s">
+      <c r="T11" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="U11" s="48" t="s">
+      <c r="U11" s="25" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2019,19 +2041,19 @@
       <c r="P12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="48">
+      <c r="Q12" s="25">
         <v>6</v>
       </c>
-      <c r="R12" s="49" t="s">
+      <c r="R12" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S12" s="48" t="s">
+      <c r="S12" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T12" s="50" t="s">
+      <c r="T12" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="U12" s="48" t="s">
+      <c r="U12" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2074,19 +2096,19 @@
       <c r="N13" s="7"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
-      <c r="Q13" s="48">
+      <c r="Q13" s="25">
         <v>6</v>
       </c>
-      <c r="R13" s="49" t="s">
+      <c r="R13" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="S13" s="48" t="s">
+      <c r="S13" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="T13" s="50" t="s">
+      <c r="T13" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="U13" s="48" t="s">
+      <c r="U13" s="25" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2133,19 +2155,19 @@
       <c r="P14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="48">
+      <c r="Q14" s="25">
         <v>6</v>
       </c>
-      <c r="R14" s="49" t="s">
+      <c r="R14" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S14" s="48" t="s">
+      <c r="S14" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T14" s="50" t="s">
+      <c r="T14" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="U14" s="48" t="s">
+      <c r="U14" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2192,78 +2214,78 @@
       <c r="P15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="25">
         <v>6</v>
       </c>
-      <c r="R15" s="49" t="s">
+      <c r="R15" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S15" s="48" t="s">
+      <c r="S15" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T15" s="50" t="s">
+      <c r="T15" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="U15" s="48" t="s">
+      <c r="U15" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:21" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="56"/>
+      <c r="G16" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="57">
         <v>11</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7" t="s">
+      <c r="M16" s="58"/>
+      <c r="N16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18" t="s">
+      <c r="O16" s="56"/>
+      <c r="P16" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="48">
+      <c r="Q16" s="56">
         <v>6</v>
       </c>
-      <c r="R16" s="49" t="s">
+      <c r="R16" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="S16" s="48" t="s">
+      <c r="S16" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="T16" s="50" t="s">
+      <c r="T16" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="U16" s="48" t="s">
+      <c r="U16" s="56" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2310,19 +2332,19 @@
       <c r="P17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="48">
+      <c r="Q17" s="25">
         <v>6</v>
       </c>
-      <c r="R17" s="49" t="s">
+      <c r="R17" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S17" s="48" t="s">
+      <c r="S17" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T17" s="50" t="s">
+      <c r="T17" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="U17" s="48" t="s">
+      <c r="U17" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2369,19 +2391,19 @@
       <c r="P18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="48">
+      <c r="Q18" s="25">
         <v>6</v>
       </c>
-      <c r="R18" s="49" t="s">
+      <c r="R18" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S18" s="48" t="s">
+      <c r="S18" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T18" s="50" t="s">
+      <c r="T18" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="U18" s="48" t="s">
+      <c r="U18" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2426,19 +2448,19 @@
       <c r="P19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="25">
         <v>6</v>
       </c>
-      <c r="R19" s="49" t="s">
+      <c r="R19" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="S19" s="48" t="s">
+      <c r="S19" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="T19" s="50" t="s">
+      <c r="T19" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="U19" s="48" t="s">
+      <c r="U19" s="25" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2485,19 +2507,19 @@
       <c r="P20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="48">
+      <c r="Q20" s="25">
         <v>6</v>
       </c>
-      <c r="R20" s="49" t="s">
+      <c r="R20" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S20" s="48" t="s">
+      <c r="S20" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T20" s="50" t="s">
+      <c r="T20" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="U20" s="48" t="s">
+      <c r="U20" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2544,19 +2566,19 @@
       <c r="P21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="48">
+      <c r="Q21" s="25">
         <v>6</v>
       </c>
-      <c r="R21" s="49" t="s">
+      <c r="R21" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S21" s="48" t="s">
+      <c r="S21" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T21" s="50" t="s">
+      <c r="T21" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="U21" s="48" t="s">
+      <c r="U21" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2603,19 +2625,19 @@
       <c r="P22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="48">
+      <c r="Q22" s="25">
         <v>6</v>
       </c>
-      <c r="R22" s="49" t="s">
+      <c r="R22" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S22" s="48" t="s">
+      <c r="S22" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T22" s="50" t="s">
+      <c r="T22" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="U22" s="48" t="s">
+      <c r="U22" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2662,19 +2684,19 @@
       <c r="P23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="48">
+      <c r="Q23" s="25">
         <v>6</v>
       </c>
-      <c r="R23" s="49" t="s">
+      <c r="R23" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S23" s="48" t="s">
+      <c r="S23" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T23" s="50" t="s">
+      <c r="T23" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="U23" s="48" t="s">
+      <c r="U23" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2721,19 +2743,19 @@
       <c r="P24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="48">
+      <c r="Q24" s="25">
         <v>6</v>
       </c>
-      <c r="R24" s="49" t="s">
+      <c r="R24" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="S24" s="48" t="s">
+      <c r="S24" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="T24" s="50" t="s">
+      <c r="T24" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="U24" s="48" t="s">
+      <c r="U24" s="25" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2780,19 +2802,19 @@
       <c r="P25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="48">
+      <c r="Q25" s="25">
         <v>6</v>
       </c>
-      <c r="R25" s="49" t="s">
+      <c r="R25" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S25" s="48" t="s">
+      <c r="S25" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T25" s="50" t="s">
+      <c r="T25" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="U25" s="48" t="s">
+      <c r="U25" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2823,11 +2845,11 @@
       <c r="N26" s="7"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="48"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="25"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -2872,19 +2894,19 @@
       <c r="P27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="48">
+      <c r="Q27" s="25">
         <v>6</v>
       </c>
-      <c r="R27" s="49" t="s">
+      <c r="R27" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S27" s="48" t="s">
+      <c r="S27" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="T27" s="50" t="s">
+      <c r="T27" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="U27" s="48" t="s">
+      <c r="U27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2931,76 +2953,76 @@
       <c r="P28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="48">
+      <c r="Q28" s="25">
         <v>6</v>
       </c>
-      <c r="R28" s="49" t="s">
+      <c r="R28" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S28" s="48" t="s">
+      <c r="S28" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T28" s="50" t="s">
+      <c r="T28" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="U28" s="48" t="s">
+      <c r="U28" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19" t="s">
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="57">
         <v>23</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7" t="s">
+      <c r="M29" s="58"/>
+      <c r="N29" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18" t="s">
+      <c r="O29" s="56"/>
+      <c r="P29" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="48">
+      <c r="Q29" s="56">
         <v>6</v>
       </c>
-      <c r="R29" s="49" t="s">
+      <c r="R29" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="S29" s="48" t="s">
+      <c r="S29" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="T29" s="50" t="s">
+      <c r="T29" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="U29" s="48" t="s">
+      <c r="U29" s="56" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3045,190 +3067,190 @@
       <c r="P30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="48" t="s">
+      <c r="Q30" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="R30" s="49" t="s">
+      <c r="R30" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="S30" s="48" t="s">
+      <c r="S30" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="T30" s="50" t="s">
+      <c r="T30" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="U30" s="48" t="s">
+      <c r="U30" s="25" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19" t="s">
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="57">
         <v>25</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7" t="s">
+      <c r="M31" s="58"/>
+      <c r="N31" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18" t="s">
+      <c r="O31" s="56"/>
+      <c r="P31" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="48">
+      <c r="Q31" s="56">
         <v>6</v>
       </c>
-      <c r="R31" s="49" t="s">
+      <c r="R31" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="S31" s="48" t="s">
+      <c r="S31" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="T31" s="50" t="s">
+      <c r="T31" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="U31" s="48" t="s">
+      <c r="U31" s="56" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19" t="s">
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="57">
         <v>26</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7" t="s">
+      <c r="M32" s="58"/>
+      <c r="N32" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18" t="s">
+      <c r="O32" s="56"/>
+      <c r="P32" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="48">
+      <c r="Q32" s="56">
         <v>6</v>
       </c>
-      <c r="R32" s="49" t="s">
+      <c r="R32" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="S32" s="48" t="s">
+      <c r="S32" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="T32" s="50" t="s">
+      <c r="T32" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="U32" s="48" t="s">
+      <c r="U32" s="56" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19" t="s">
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="57">
         <v>27</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7" t="s">
+      <c r="M33" s="58"/>
+      <c r="N33" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18" t="s">
+      <c r="O33" s="56"/>
+      <c r="P33" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="48">
+      <c r="Q33" s="56">
         <v>6</v>
       </c>
-      <c r="R33" s="49" t="s">
+      <c r="R33" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="S33" s="48" t="s">
+      <c r="S33" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="T33" s="50" t="s">
+      <c r="T33" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="U33" s="48" t="s">
+      <c r="U33" s="56" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3273,19 +3295,19 @@
       <c r="P34" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="48" t="s">
+      <c r="Q34" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="R34" s="49" t="s">
+      <c r="R34" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="S34" s="48" t="s">
+      <c r="S34" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="T34" s="50" t="s">
+      <c r="T34" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="U34" s="48" t="s">
+      <c r="U34" s="25" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3328,11 +3350,11 @@
       <c r="P35" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="48"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="25"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -3375,19 +3397,19 @@
       <c r="P36" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="48">
+      <c r="Q36" s="25">
         <v>6</v>
       </c>
-      <c r="R36" s="49" t="s">
+      <c r="R36" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="S36" s="48" t="s">
+      <c r="S36" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="T36" s="50" t="s">
+      <c r="T36" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="U36" s="48" t="s">
+      <c r="U36" s="25" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3415,7 +3437,7 @@
       <c r="I37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="52" t="s">
+      <c r="J37" s="29" t="s">
         <v>202</v>
       </c>
       <c r="K37" s="6" t="s">
@@ -3432,26 +3454,26 @@
       <c r="P37" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" s="48">
+      <c r="Q37" s="25">
         <v>6</v>
       </c>
-      <c r="R37" s="49" t="s">
+      <c r="R37" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S37" s="48" t="s">
+      <c r="S37" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="T37" s="50" t="s">
+      <c r="T37" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="U37" s="48" t="s">
+      <c r="U37" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="53"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="17"/>
       <c r="E38" s="16"/>
       <c r="F38" s="18"/>
@@ -3465,16 +3487,16 @@
       <c r="N38" s="7"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="48"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="25"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="53"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="17"/>
       <c r="E39" s="16"/>
       <c r="F39" s="18"/>
@@ -3488,16 +3510,16 @@
       <c r="N39" s="7"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="48"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="25"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="53"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="17"/>
       <c r="E40" s="16"/>
       <c r="F40" s="18"/>
@@ -3511,16 +3533,16 @@
       <c r="N40" s="7"/>
       <c r="O40" s="18"/>
       <c r="P40" s="18"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="48"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="25"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="53"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="17"/>
       <c r="E41" s="16"/>
       <c r="F41" s="18"/>
@@ -3534,16 +3556,16 @@
       <c r="N41" s="7"/>
       <c r="O41" s="18"/>
       <c r="P41" s="18"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="48"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="25"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="53"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="17"/>
       <c r="E42" s="16"/>
       <c r="F42" s="18"/>
@@ -3557,16 +3579,16 @@
       <c r="N42" s="7"/>
       <c r="O42" s="18"/>
       <c r="P42" s="18"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="48"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="25"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="53"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="17"/>
       <c r="E43" s="16"/>
       <c r="F43" s="18"/>
@@ -3580,16 +3602,16 @@
       <c r="N43" s="7"/>
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="50"/>
-      <c r="U43" s="48"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="25"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="53"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="17"/>
       <c r="E44" s="16"/>
       <c r="F44" s="18"/>
@@ -3603,16 +3625,16 @@
       <c r="N44" s="7"/>
       <c r="O44" s="18"/>
       <c r="P44" s="18"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="48"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="25"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="53"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="17"/>
       <c r="E45" s="16"/>
       <c r="F45" s="18"/>
@@ -3626,16 +3648,16 @@
       <c r="N45" s="7"/>
       <c r="O45" s="18"/>
       <c r="P45" s="18"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="48"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="25"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="53"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="17"/>
       <c r="E46" s="16"/>
       <c r="F46" s="18"/>
@@ -3649,16 +3671,16 @@
       <c r="N46" s="7"/>
       <c r="O46" s="18"/>
       <c r="P46" s="18"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="48"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="48"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="25"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="53"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="17"/>
       <c r="E47" s="16"/>
       <c r="F47" s="18"/>
@@ -3672,16 +3694,16 @@
       <c r="N47" s="7"/>
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="50"/>
-      <c r="U47" s="48"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="25"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="53"/>
+      <c r="C48" s="30"/>
       <c r="D48" s="17"/>
       <c r="E48" s="16"/>
       <c r="F48" s="18"/>
@@ -3695,16 +3717,16 @@
       <c r="N48" s="7"/>
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="50"/>
-      <c r="U48" s="48"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="25"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="53"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="17"/>
       <c r="E49" s="16"/>
       <c r="F49" s="18"/>
@@ -3718,16 +3740,16 @@
       <c r="N49" s="7"/>
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="48"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="25"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="16"/>
-      <c r="C50" s="53"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="17"/>
       <c r="E50" s="16"/>
       <c r="F50" s="18"/>
@@ -3741,16 +3763,16 @@
       <c r="N50" s="7"/>
       <c r="O50" s="18"/>
       <c r="P50" s="18"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="48"/>
-      <c r="T50" s="50"/>
-      <c r="U50" s="48"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="25"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="16"/>
-      <c r="C51" s="53"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="17"/>
       <c r="E51" s="16"/>
       <c r="F51" s="18"/>
@@ -3764,16 +3786,16 @@
       <c r="N51" s="7"/>
       <c r="O51" s="18"/>
       <c r="P51" s="18"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="50"/>
-      <c r="U51" s="48"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="25"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="16"/>
-      <c r="C52" s="53"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="17"/>
       <c r="E52" s="16"/>
       <c r="F52" s="18"/>
@@ -3787,16 +3809,16 @@
       <c r="N52" s="7"/>
       <c r="O52" s="18"/>
       <c r="P52" s="18"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="48"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="48"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="25"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="16"/>
-      <c r="C53" s="53"/>
+      <c r="C53" s="30"/>
       <c r="D53" s="17"/>
       <c r="E53" s="16"/>
       <c r="F53" s="18"/>
@@ -3810,16 +3832,16 @@
       <c r="N53" s="7"/>
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="49"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="50"/>
-      <c r="U53" s="48"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="25"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="16"/>
-      <c r="C54" s="53"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="17"/>
       <c r="E54" s="16"/>
       <c r="F54" s="18"/>
@@ -3833,16 +3855,16 @@
       <c r="N54" s="7"/>
       <c r="O54" s="18"/>
       <c r="P54" s="18"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="49"/>
-      <c r="S54" s="48"/>
-      <c r="T54" s="50"/>
-      <c r="U54" s="48"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="25"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="16"/>
-      <c r="C55" s="53"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="17"/>
       <c r="E55" s="16"/>
       <c r="F55" s="18"/>
@@ -3856,16 +3878,16 @@
       <c r="N55" s="7"/>
       <c r="O55" s="18"/>
       <c r="P55" s="18"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="48"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="25"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="16"/>
-      <c r="C56" s="53"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="17"/>
       <c r="E56" s="16"/>
       <c r="F56" s="18"/>
@@ -3879,16 +3901,16 @@
       <c r="N56" s="7"/>
       <c r="O56" s="18"/>
       <c r="P56" s="18"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="50"/>
-      <c r="U56" s="48"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="25"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="16"/>
-      <c r="C57" s="53"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="17"/>
       <c r="E57" s="16"/>
       <c r="F57" s="18"/>
@@ -3902,16 +3924,16 @@
       <c r="N57" s="7"/>
       <c r="O57" s="18"/>
       <c r="P57" s="18"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="49"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="50"/>
-      <c r="U57" s="48"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="25"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="16"/>
-      <c r="C58" s="53"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="17"/>
       <c r="E58" s="16"/>
       <c r="F58" s="18"/>
@@ -3925,16 +3947,16 @@
       <c r="N58" s="7"/>
       <c r="O58" s="18"/>
       <c r="P58" s="18"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="48"/>
-      <c r="T58" s="50"/>
-      <c r="U58" s="48"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="25"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="16"/>
-      <c r="C59" s="53"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="17"/>
       <c r="E59" s="16"/>
       <c r="F59" s="18"/>
@@ -3948,16 +3970,16 @@
       <c r="N59" s="7"/>
       <c r="O59" s="18"/>
       <c r="P59" s="18"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="49"/>
-      <c r="S59" s="48"/>
-      <c r="T59" s="50"/>
-      <c r="U59" s="48"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="25"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="16"/>
-      <c r="C60" s="53"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="17"/>
       <c r="E60" s="16"/>
       <c r="F60" s="18"/>
@@ -3971,16 +3993,16 @@
       <c r="N60" s="7"/>
       <c r="O60" s="18"/>
       <c r="P60" s="18"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="49"/>
-      <c r="S60" s="48"/>
-      <c r="T60" s="50"/>
-      <c r="U60" s="48"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="25"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="16"/>
-      <c r="C61" s="53"/>
+      <c r="C61" s="30"/>
       <c r="D61" s="17"/>
       <c r="E61" s="16"/>
       <c r="F61" s="18"/>
@@ -3994,16 +4016,16 @@
       <c r="N61" s="7"/>
       <c r="O61" s="18"/>
       <c r="P61" s="18"/>
-      <c r="Q61" s="48"/>
-      <c r="R61" s="49"/>
-      <c r="S61" s="48"/>
-      <c r="T61" s="50"/>
-      <c r="U61" s="48"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="25"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="16"/>
-      <c r="C62" s="53"/>
+      <c r="C62" s="30"/>
       <c r="D62" s="17"/>
       <c r="E62" s="16"/>
       <c r="F62" s="18"/>
@@ -4017,16 +4039,16 @@
       <c r="N62" s="7"/>
       <c r="O62" s="18"/>
       <c r="P62" s="18"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="48"/>
-      <c r="T62" s="50"/>
-      <c r="U62" s="48"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="25"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="16"/>
-      <c r="C63" s="53"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="17"/>
       <c r="E63" s="16"/>
       <c r="F63" s="18"/>
@@ -4040,16 +4062,16 @@
       <c r="N63" s="7"/>
       <c r="O63" s="18"/>
       <c r="P63" s="18"/>
-      <c r="Q63" s="48"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="48"/>
-      <c r="T63" s="50"/>
-      <c r="U63" s="48"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="25"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="16"/>
-      <c r="C64" s="53"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="17"/>
       <c r="E64" s="16"/>
       <c r="F64" s="18"/>
@@ -4063,16 +4085,16 @@
       <c r="N64" s="7"/>
       <c r="O64" s="18"/>
       <c r="P64" s="18"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="48"/>
-      <c r="T64" s="50"/>
-      <c r="U64" s="48"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="25"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="16"/>
-      <c r="C65" s="53"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="17"/>
       <c r="E65" s="16"/>
       <c r="F65" s="18"/>
@@ -4086,16 +4108,16 @@
       <c r="N65" s="7"/>
       <c r="O65" s="18"/>
       <c r="P65" s="18"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="48"/>
-      <c r="T65" s="50"/>
-      <c r="U65" s="48"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="25"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="16"/>
-      <c r="C66" s="53"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="17"/>
       <c r="E66" s="16"/>
       <c r="F66" s="18"/>
@@ -4109,16 +4131,16 @@
       <c r="N66" s="7"/>
       <c r="O66" s="18"/>
       <c r="P66" s="18"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="48"/>
-      <c r="T66" s="50"/>
-      <c r="U66" s="48"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="26"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="25"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="16"/>
-      <c r="C67" s="53"/>
+      <c r="C67" s="30"/>
       <c r="D67" s="17"/>
       <c r="E67" s="16"/>
       <c r="F67" s="18"/>
@@ -4132,16 +4154,16 @@
       <c r="N67" s="7"/>
       <c r="O67" s="18"/>
       <c r="P67" s="18"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="48"/>
-      <c r="T67" s="50"/>
-      <c r="U67" s="48"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="25"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="16"/>
-      <c r="C68" s="53"/>
+      <c r="C68" s="30"/>
       <c r="D68" s="17"/>
       <c r="E68" s="16"/>
       <c r="F68" s="18"/>
@@ -4155,16 +4177,16 @@
       <c r="N68" s="7"/>
       <c r="O68" s="18"/>
       <c r="P68" s="18"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="48"/>
-      <c r="T68" s="50"/>
-      <c r="U68" s="48"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="27"/>
+      <c r="U68" s="25"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="16"/>
-      <c r="C69" s="53"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="17"/>
       <c r="E69" s="16"/>
       <c r="F69" s="18"/>
@@ -4178,16 +4200,16 @@
       <c r="N69" s="7"/>
       <c r="O69" s="18"/>
       <c r="P69" s="18"/>
-      <c r="Q69" s="48"/>
-      <c r="R69" s="49"/>
-      <c r="S69" s="48"/>
-      <c r="T69" s="50"/>
-      <c r="U69" s="48"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="25"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="16"/>
-      <c r="C70" s="53"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="17"/>
       <c r="E70" s="16"/>
       <c r="F70" s="18"/>
@@ -4201,16 +4223,16 @@
       <c r="N70" s="7"/>
       <c r="O70" s="18"/>
       <c r="P70" s="18"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="49"/>
-      <c r="S70" s="48"/>
-      <c r="T70" s="50"/>
-      <c r="U70" s="48"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="26"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="27"/>
+      <c r="U70" s="25"/>
     </row>
     <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="16"/>
-      <c r="C71" s="53"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="17"/>
       <c r="E71" s="16"/>
       <c r="F71" s="18"/>
@@ -4224,16 +4246,16 @@
       <c r="N71" s="7"/>
       <c r="O71" s="18"/>
       <c r="P71" s="18"/>
-      <c r="Q71" s="48"/>
-      <c r="R71" s="49"/>
-      <c r="S71" s="48"/>
-      <c r="T71" s="50"/>
-      <c r="U71" s="48"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="27"/>
+      <c r="U71" s="25"/>
     </row>
     <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="16"/>
-      <c r="C72" s="53"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="17"/>
       <c r="E72" s="16"/>
       <c r="F72" s="18"/>
@@ -4247,16 +4269,16 @@
       <c r="N72" s="7"/>
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
-      <c r="Q72" s="48"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="48"/>
-      <c r="T72" s="50"/>
-      <c r="U72" s="48"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="25"/>
     </row>
     <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="16"/>
-      <c r="C73" s="53"/>
+      <c r="C73" s="30"/>
       <c r="D73" s="17"/>
       <c r="E73" s="16"/>
       <c r="F73" s="18"/>
@@ -4270,16 +4292,16 @@
       <c r="N73" s="7"/>
       <c r="O73" s="18"/>
       <c r="P73" s="18"/>
-      <c r="Q73" s="48"/>
-      <c r="R73" s="49"/>
-      <c r="S73" s="48"/>
-      <c r="T73" s="50"/>
-      <c r="U73" s="48"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="27"/>
+      <c r="U73" s="25"/>
     </row>
     <row r="74" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="16"/>
-      <c r="C74" s="53"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="17"/>
       <c r="E74" s="16"/>
       <c r="F74" s="18"/>
@@ -4293,16 +4315,16 @@
       <c r="N74" s="7"/>
       <c r="O74" s="18"/>
       <c r="P74" s="18"/>
-      <c r="Q74" s="48"/>
-      <c r="R74" s="49"/>
-      <c r="S74" s="48"/>
-      <c r="T74" s="50"/>
-      <c r="U74" s="48"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="26"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="25"/>
     </row>
     <row r="75" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="16"/>
-      <c r="C75" s="53"/>
+      <c r="C75" s="30"/>
       <c r="D75" s="17"/>
       <c r="E75" s="16"/>
       <c r="F75" s="18"/>
@@ -4316,16 +4338,16 @@
       <c r="N75" s="7"/>
       <c r="O75" s="18"/>
       <c r="P75" s="18"/>
-      <c r="Q75" s="48"/>
-      <c r="R75" s="49"/>
-      <c r="S75" s="48"/>
-      <c r="T75" s="50"/>
-      <c r="U75" s="48"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="25"/>
     </row>
     <row r="76" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="16"/>
-      <c r="C76" s="53"/>
+      <c r="C76" s="30"/>
       <c r="D76" s="17"/>
       <c r="E76" s="16"/>
       <c r="F76" s="18"/>
@@ -4339,16 +4361,16 @@
       <c r="N76" s="7"/>
       <c r="O76" s="18"/>
       <c r="P76" s="18"/>
-      <c r="Q76" s="48"/>
-      <c r="R76" s="49"/>
-      <c r="S76" s="48"/>
-      <c r="T76" s="50"/>
-      <c r="U76" s="48"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="25"/>
     </row>
     <row r="77" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="16"/>
-      <c r="C77" s="53"/>
+      <c r="C77" s="30"/>
       <c r="D77" s="17"/>
       <c r="E77" s="16"/>
       <c r="F77" s="18"/>
@@ -4362,16 +4384,16 @@
       <c r="N77" s="7"/>
       <c r="O77" s="18"/>
       <c r="P77" s="18"/>
-      <c r="Q77" s="48"/>
-      <c r="R77" s="49"/>
-      <c r="S77" s="48"/>
-      <c r="T77" s="50"/>
-      <c r="U77" s="48"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="25"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="25"/>
     </row>
     <row r="78" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="16"/>
-      <c r="C78" s="53"/>
+      <c r="C78" s="30"/>
       <c r="D78" s="17"/>
       <c r="E78" s="16"/>
       <c r="F78" s="18"/>
@@ -4385,16 +4407,16 @@
       <c r="N78" s="7"/>
       <c r="O78" s="18"/>
       <c r="P78" s="18"/>
-      <c r="Q78" s="48"/>
-      <c r="R78" s="49"/>
-      <c r="S78" s="48"/>
-      <c r="T78" s="50"/>
-      <c r="U78" s="48"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="26"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="27"/>
+      <c r="U78" s="25"/>
     </row>
     <row r="79" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="16"/>
-      <c r="C79" s="53"/>
+      <c r="C79" s="30"/>
       <c r="D79" s="17"/>
       <c r="E79" s="16"/>
       <c r="F79" s="18"/>
@@ -4408,16 +4430,16 @@
       <c r="N79" s="7"/>
       <c r="O79" s="18"/>
       <c r="P79" s="18"/>
-      <c r="Q79" s="48"/>
-      <c r="R79" s="49"/>
-      <c r="S79" s="48"/>
-      <c r="T79" s="50"/>
-      <c r="U79" s="48"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="25"/>
+      <c r="T79" s="27"/>
+      <c r="U79" s="25"/>
     </row>
     <row r="80" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="16"/>
-      <c r="C80" s="53"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="17"/>
       <c r="E80" s="16"/>
       <c r="F80" s="18"/>
@@ -4431,11 +4453,11 @@
       <c r="N80" s="7"/>
       <c r="O80" s="18"/>
       <c r="P80" s="18"/>
-      <c r="Q80" s="48"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="48"/>
-      <c r="T80" s="50"/>
-      <c r="U80" s="48"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="26"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="25"/>
     </row>
     <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4800,12 +4822,6 @@
     <row r="294" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4820,6 +4836,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado10/guion15/escaleta_CN_10_15_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion15/escaleta_CN_10_15_CO.xlsx
@@ -828,7 +828,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -907,6 +907,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -963,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1030,34 +1036,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,17 +1098,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,9 +1438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,94 +1469,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="32" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="54" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="24" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="35"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1880,62 +1887,62 @@
       <c r="T9" s="27"/>
       <c r="U9" s="25"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:21" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="34">
         <v>5</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7" t="s">
+      <c r="M10" s="35"/>
+      <c r="N10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18" t="s">
+      <c r="O10" s="33"/>
+      <c r="P10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="33">
         <v>6</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="T10" s="27" t="s">
+      <c r="T10" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="33" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2230,62 +2237,62 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+    <row r="16" spans="1:21" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="34">
         <v>11</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="J16" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="58" t="s">
+      <c r="L16" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58" t="s">
+      <c r="M16" s="35"/>
+      <c r="N16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56" t="s">
+      <c r="O16" s="33"/>
+      <c r="P16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="56">
+      <c r="Q16" s="33">
         <v>6</v>
       </c>
-      <c r="R16" s="56" t="s">
+      <c r="R16" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S16" s="56" t="s">
+      <c r="S16" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="T16" s="56" t="s">
+      <c r="T16" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="U16" s="56" t="s">
+      <c r="U16" s="33" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2465,238 +2472,238 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19" t="s">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="34">
         <v>15</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7" t="s">
+      <c r="M20" s="35"/>
+      <c r="N20" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18" t="s">
+      <c r="O20" s="33"/>
+      <c r="P20" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20" s="33">
         <v>6</v>
       </c>
-      <c r="R20" s="26" t="s">
+      <c r="R20" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="S20" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="T20" s="27" t="s">
+      <c r="T20" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="U20" s="25" t="s">
+      <c r="U20" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="34">
         <v>16</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7" t="s">
+      <c r="M21" s="35"/>
+      <c r="N21" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18" t="s">
+      <c r="O21" s="33"/>
+      <c r="P21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="25">
+      <c r="Q21" s="33">
         <v>6</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="R21" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="T21" s="27" t="s">
+      <c r="T21" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="U21" s="25" t="s">
+      <c r="U21" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="34">
         <v>17</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7" t="s">
+      <c r="M22" s="35"/>
+      <c r="N22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18" t="s">
+      <c r="O22" s="33"/>
+      <c r="P22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="25">
+      <c r="Q22" s="33">
         <v>6</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="R22" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S22" s="25" t="s">
+      <c r="S22" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="T22" s="27" t="s">
+      <c r="T22" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="U22" s="25" t="s">
+      <c r="U22" s="33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:21" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19" t="s">
+      <c r="F23" s="33"/>
+      <c r="G23" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="34">
         <v>18</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18" t="s">
+      <c r="M23" s="35"/>
+      <c r="N23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="25">
+      <c r="Q23" s="33">
         <v>6</v>
       </c>
-      <c r="R23" s="26" t="s">
+      <c r="R23" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="S23" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="T23" s="27" t="s">
+      <c r="T23" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="U23" s="25" t="s">
+      <c r="U23" s="33" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2740,8 +2747,8 @@
         <v>32</v>
       </c>
       <c r="O24" s="18"/>
-      <c r="P24" s="18" t="s">
-        <v>20</v>
+      <c r="P24" s="60" t="s">
+        <v>19</v>
       </c>
       <c r="Q24" s="25">
         <v>6</v>
@@ -2970,59 +2977,59 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56" t="s">
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="34">
         <v>23</v>
       </c>
-      <c r="I29" s="58" t="s">
+      <c r="I29" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="56" t="s">
+      <c r="J29" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="K29" s="58" t="s">
+      <c r="K29" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="58" t="s">
+      <c r="L29" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58" t="s">
+      <c r="M29" s="35"/>
+      <c r="N29" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56" t="s">
+      <c r="O29" s="33"/>
+      <c r="P29" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="56">
+      <c r="Q29" s="33">
         <v>6</v>
       </c>
-      <c r="R29" s="56" t="s">
+      <c r="R29" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S29" s="56" t="s">
+      <c r="S29" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="T29" s="56" t="s">
+      <c r="T29" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="U29" s="56" t="s">
+      <c r="U29" s="33" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3084,173 +3091,173 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56" t="s">
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="34">
         <v>25</v>
       </c>
-      <c r="I31" s="58" t="s">
+      <c r="I31" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="56" t="s">
+      <c r="J31" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="K31" s="58" t="s">
+      <c r="K31" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="58" t="s">
+      <c r="L31" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58" t="s">
+      <c r="M31" s="35"/>
+      <c r="N31" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56" t="s">
+      <c r="O31" s="33"/>
+      <c r="P31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="56">
+      <c r="Q31" s="33">
         <v>6</v>
       </c>
-      <c r="R31" s="56" t="s">
+      <c r="R31" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S31" s="56" t="s">
+      <c r="S31" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="T31" s="56" t="s">
+      <c r="T31" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="U31" s="56" t="s">
+      <c r="U31" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56" t="s">
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="34">
         <v>26</v>
       </c>
-      <c r="I32" s="58" t="s">
+      <c r="I32" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="56" t="s">
+      <c r="J32" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="K32" s="58" t="s">
+      <c r="K32" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="58" t="s">
+      <c r="L32" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58" t="s">
+      <c r="M32" s="35"/>
+      <c r="N32" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56" t="s">
+      <c r="O32" s="33"/>
+      <c r="P32" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="56">
+      <c r="Q32" s="33">
         <v>6</v>
       </c>
-      <c r="R32" s="56" t="s">
+      <c r="R32" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S32" s="56" t="s">
+      <c r="S32" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="T32" s="56" t="s">
+      <c r="T32" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="U32" s="56" t="s">
+      <c r="U32" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56" t="s">
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="H33" s="57">
+      <c r="H33" s="34">
         <v>27</v>
       </c>
-      <c r="I33" s="58" t="s">
+      <c r="I33" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="56" t="s">
+      <c r="J33" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="K33" s="58" t="s">
+      <c r="K33" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="58" t="s">
+      <c r="L33" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58" t="s">
+      <c r="M33" s="35"/>
+      <c r="N33" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56" t="s">
+      <c r="O33" s="33"/>
+      <c r="P33" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="56">
+      <c r="Q33" s="33">
         <v>6</v>
       </c>
-      <c r="R33" s="56" t="s">
+      <c r="R33" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S33" s="56" t="s">
+      <c r="S33" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="T33" s="56" t="s">
+      <c r="T33" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="U33" s="56" t="s">
+      <c r="U33" s="33" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4822,6 +4829,12 @@
     <row r="294" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4836,12 +4849,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado10/guion15/escaleta_CN_10_15_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion15/escaleta_CN_10_15_CO.xlsx
@@ -19,14 +19,14 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="256">
   <si>
     <t>Asignatura</t>
   </si>
@@ -782,6 +782,21 @@
   </si>
   <si>
     <t>Recurso F13B-01</t>
+  </si>
+  <si>
+    <t>Las reacciones químicas</t>
+  </si>
+  <si>
+    <t>Calcula las concentraciones de las disoluciones</t>
+  </si>
+  <si>
+    <t>FQ_10_12</t>
+  </si>
+  <si>
+    <t>cambiar desripción y título</t>
+  </si>
+  <si>
+    <t>Calcula porcentajes en masa y en volumen</t>
   </si>
 </sst>
 </file>
@@ -828,7 +843,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,6 +928,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -969,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1047,16 +1074,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,31 +1144,39 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1438,9 +1492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,94 +1523,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="24" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="55"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="41"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2120,297 +2174,301 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="62"/>
+      <c r="G14" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="63">
         <v>9</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7" t="s">
+      <c r="M14" s="64"/>
+      <c r="N14" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18" t="s">
+      <c r="O14" s="62"/>
+      <c r="P14" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14" s="62">
         <v>6</v>
       </c>
-      <c r="R14" s="26" t="s">
+      <c r="R14" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="S14" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="T14" s="27" t="s">
+      <c r="T14" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="U14" s="25" t="s">
+      <c r="U14" s="62" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="62"/>
+      <c r="G15" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="63">
         <v>10</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7" t="s">
+      <c r="M15" s="64"/>
+      <c r="N15" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18" t="s">
+      <c r="O15" s="62"/>
+      <c r="P15" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q15" s="62">
         <v>6</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="R15" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="T15" s="27" t="s">
+      <c r="T15" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="U15" s="25" t="s">
+      <c r="U15" s="62" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="67">
+        <v>9</v>
+      </c>
+      <c r="I16" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="K16" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="P16" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="R16" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="S16" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="T16" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="U16" s="69" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33" t="s">
+      <c r="F17" s="66"/>
+      <c r="G17" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="67">
+        <v>10</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="P17" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="R17" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="S17" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="T17" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="U17" s="69" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H18" s="34">
         <v>11</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I18" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J18" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K18" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L18" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35" t="s">
+      <c r="M18" s="35"/>
+      <c r="N18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33" t="s">
+      <c r="O18" s="33"/>
+      <c r="P18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="Q18" s="33">
         <v>6</v>
       </c>
-      <c r="R16" s="33" t="s">
+      <c r="R18" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="S18" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="T16" s="33" t="s">
+      <c r="T18" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="U16" s="33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="H17" s="23">
-        <v>12</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="25">
-        <v>6</v>
-      </c>
-      <c r="R17" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="S17" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="T17" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="U17" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="23">
-        <v>13</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="25">
-        <v>6</v>
-      </c>
-      <c r="R18" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="S18" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="T18" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="U18" s="25" t="s">
+      <c r="U18" s="33" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2425,32 +2483,34 @@
         <v>123</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="16"/>
+        <v>131</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="F19" s="18"/>
       <c r="G19" s="19" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="H19" s="23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="O19" s="18"/>
       <c r="P19" s="18" t="s">
         <v>19</v>
@@ -2459,134 +2519,132 @@
         <v>6</v>
       </c>
       <c r="R19" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="U19" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="23">
+        <v>13</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>6</v>
+      </c>
+      <c r="R20" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="S20" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="T20" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="U20" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="23">
+        <v>14</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>6</v>
+      </c>
+      <c r="R21" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="S19" s="25" t="s">
+      <c r="S21" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="T19" s="27" t="s">
+      <c r="T21" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="U19" s="25" t="s">
+      <c r="U21" s="25" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="34">
-        <v>15</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="33">
-        <v>6</v>
-      </c>
-      <c r="R20" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="S20" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="T20" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="U20" s="33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H21" s="34">
-        <v>16</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="33">
-        <v>6</v>
-      </c>
-      <c r="R21" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="S21" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="T21" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="U21" s="33" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2603,20 +2661,20 @@
         <v>135</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H22" s="34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I22" s="35" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="K22" s="35" t="s">
         <v>20</v>
@@ -2642,7 +2700,7 @@
         <v>163</v>
       </c>
       <c r="T22" s="33" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="U22" s="33" t="s">
         <v>165</v>
@@ -2662,20 +2720,20 @@
         <v>135</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="H23" s="34">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K23" s="35" t="s">
         <v>20</v>
@@ -2701,127 +2759,127 @@
         <v>163</v>
       </c>
       <c r="T23" s="33" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="U23" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="34">
+        <v>17</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="33">
+        <v>6</v>
+      </c>
+      <c r="R24" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="S24" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="T24" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="U24" s="33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="H24" s="23">
+      <c r="F25" s="33"/>
+      <c r="G25" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25" s="34">
+        <v>18</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="18"/>
-      <c r="P24" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="25">
+      <c r="Q25" s="33">
         <v>6</v>
       </c>
-      <c r="R24" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="S24" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="T24" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="U24" s="25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25" s="23">
-        <v>20</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="25">
-        <v>6</v>
-      </c>
-      <c r="R25" s="26" t="s">
+      <c r="R25" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="T25" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="U25" s="25" t="s">
+      <c r="T25" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="U25" s="33" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2836,27 +2894,53 @@
         <v>123</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
+      <c r="G26" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" s="23">
+        <v>19</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="N26" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="25"/>
+      <c r="P26" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>6</v>
+      </c>
+      <c r="R26" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="S26" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="T26" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="U26" s="25" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -2869,34 +2953,34 @@
         <v>123</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="19" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="H27" s="23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N27" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="O27" s="18"/>
       <c r="P27" s="18" t="s">
         <v>19</v>
@@ -2908,13 +2992,13 @@
         <v>162</v>
       </c>
       <c r="S27" s="25" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="T27" s="27" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="U27" s="25" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2931,106 +3015,82 @@
         <v>139</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F28" s="18"/>
-      <c r="G28" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="23">
-        <v>22</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="G28" s="19"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="25"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="23">
+        <v>21</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18" t="s">
+      <c r="L29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="7"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="Q29" s="25">
         <v>6</v>
       </c>
-      <c r="R28" s="26" t="s">
+      <c r="R29" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="S28" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="T28" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="U28" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="H29" s="34">
-        <v>23</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="33">
-        <v>6</v>
-      </c>
-      <c r="R29" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="S29" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="T29" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="U29" s="33" t="s">
-        <v>165</v>
+      <c r="S29" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="T29" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="U29" s="25" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3044,50 +3104,52 @@
         <v>123</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="16"/>
+        <v>139</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="F30" s="18"/>
       <c r="G30" s="19" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="H30" s="23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O30" s="18"/>
       <c r="P30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="25" t="s">
-        <v>193</v>
+      <c r="Q30" s="25">
+        <v>6</v>
       </c>
       <c r="R30" s="26" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="S30" s="25" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="T30" s="27" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="U30" s="25" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3106,16 +3168,16 @@
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H31" s="34">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I31" s="35" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="K31" s="35" t="s">
         <v>20</v>
@@ -3129,7 +3191,7 @@
       </c>
       <c r="O31" s="33"/>
       <c r="P31" s="33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="33">
         <v>6</v>
@@ -3141,67 +3203,67 @@
         <v>163</v>
       </c>
       <c r="T31" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U31" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="H32" s="34">
-        <v>26</v>
-      </c>
-      <c r="I32" s="35" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" s="23">
+        <v>24</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="K32" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="35" t="s">
+      <c r="J32" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35" t="s">
+      <c r="M32" s="7"/>
+      <c r="N32" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33" t="s">
+      <c r="O32" s="18"/>
+      <c r="P32" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="33">
-        <v>6</v>
-      </c>
-      <c r="R32" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="S32" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="T32" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="U32" s="33" t="s">
-        <v>165</v>
+      <c r="Q32" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="R32" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="S32" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="U32" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3220,16 +3282,16 @@
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H33" s="34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I33" s="35" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="K33" s="35" t="s">
         <v>20</v>
@@ -3255,113 +3317,125 @@
         <v>163</v>
       </c>
       <c r="T33" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U33" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="H34" s="23">
-        <v>28</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="34">
+        <v>26</v>
+      </c>
+      <c r="I34" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="K34" s="6" t="s">
+      <c r="J34" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="Q34" s="33">
+        <v>6</v>
+      </c>
+      <c r="R34" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="S34" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="T34" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="U34" s="33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H35" s="34">
+        <v>27</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7" t="s">
+      <c r="M35" s="35"/>
+      <c r="N35" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18" t="s">
+      <c r="O35" s="33"/>
+      <c r="P35" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="R34" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="S34" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="T34" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="U34" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="23">
-        <v>29</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="25"/>
+      <c r="Q35" s="33">
+        <v>6</v>
+      </c>
+      <c r="R35" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="S35" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="T35" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="U35" s="33" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -3374,50 +3448,50 @@
         <v>123</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="18"/>
       <c r="G36" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H36" s="23">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="O36" s="18"/>
       <c r="P36" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="25">
-        <v>6</v>
+      <c r="Q36" s="25" t="s">
+        <v>181</v>
       </c>
       <c r="R36" s="26" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="S36" s="25" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="T36" s="27" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="U36" s="25" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3436,92 +3510,148 @@
       <c r="E37" s="16"/>
       <c r="F37" s="18"/>
       <c r="G37" s="19" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="H37" s="23">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="29" t="s">
-        <v>202</v>
+      <c r="J37" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M37" s="7"/>
-      <c r="N37" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="N37" s="7"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="25">
-        <v>6</v>
-      </c>
-      <c r="R37" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="S37" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="T37" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="U37" s="25" t="s">
-        <v>165</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="25"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="E38" s="16"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="5"/>
+      <c r="G38" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H38" s="23">
+        <v>30</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
+      <c r="N38" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="25"/>
+      <c r="P38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q38" s="25">
+        <v>6</v>
+      </c>
+      <c r="R38" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="S38" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="T38" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="U38" s="25" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="17"/>
+      <c r="A39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="E39" s="16"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="5"/>
+      <c r="G39" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" s="23">
+        <v>31</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
+      <c r="N39" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="25"/>
+      <c r="P39" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="25">
+        <v>6</v>
+      </c>
+      <c r="R39" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="S39" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="T39" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="U39" s="25" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -4466,206 +4596,251 @@
       <c r="T80" s="27"/>
       <c r="U80" s="25"/>
     </row>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
+    <row r="81" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="26"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="25"/>
+    </row>
+    <row r="82" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="25"/>
+    </row>
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4829,12 +5004,6 @@
     <row r="294" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4849,6 +5018,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4859,37 +5034,37 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N36 N38:N80 N3:N34</xm:sqref>
+          <xm:sqref>N38 N40:N82 N3:N36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>P38:P80 K38:K80 P3:P34 K3:K34 I3:I80</xm:sqref>
+          <xm:sqref>P40:P82 K40:K82 P3:P36 K3:K36 I3:I82</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L38:L80 L3:L34</xm:sqref>
+          <xm:sqref>L40:L82 L3:L36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M38:M80 M3:M34</xm:sqref>
+          <xm:sqref>M40:M82 M3:M36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P35:P37 K35:M37 N35 N37</xm:sqref>
+          <xm:sqref>P37:P39 K37:M39 N37 N39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A80</xm:sqref>
+          <xm:sqref>A3:A82</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
